--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24905"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BD1C5A-B042-4317-B16A-20A4FD3807FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82C00FD-430B-4C88-9732-52C5703C4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33AE923-D8DF-4B94-8F21-87F6332BC752}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -696,21 +696,41 @@
       <c r="A11" s="4">
         <v>44571</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1">
+        <v>5797</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45691</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2796</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37736</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="4">
         <v>44572</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1">
+        <v>9066</v>
+      </c>
+      <c r="C12" s="1">
+        <v>63898</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2064</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44441</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="4">

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -218,7 +218,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,81 +495,161 @@
       <c r="A14" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="4" t="n">
+        <v>13468</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>66796</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3252</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>64529</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>44575</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="4" t="n">
+        <v>16338</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>68971</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3848</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>76819</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="4" t="n">
+        <v>17755</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>65937</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>3819</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>90649</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44577</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="4" t="n">
+        <v>18123</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>59314</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>4749</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>103864</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="4" t="n">
+        <v>22946</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>69373</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>121458</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44579</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="4" t="n">
+        <v>28481</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>80470</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>7303</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>142512</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>44580</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="4" t="n">
+        <v>34199</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>91983</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>8193</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>168383</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>44581</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="4" t="n">
+        <v>46387</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>115357</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>15388</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>199041</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
@@ -693,7 +773,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.57"/>
   </cols>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\kerala_covid_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990778AF-B0D3-4573-A9C9-2DB3B4A5797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="district_wise" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Covid_report" sheetId="1" r:id="rId1"/>
+    <sheet name="district_wise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,72 +28,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZD</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>today_positive</t>
+  </si>
+  <si>
+    <t>today_tests</t>
+  </si>
+  <si>
+    <t>today_negative</t>
+  </si>
+  <si>
+    <t>today_deaths</t>
+  </si>
+  <si>
+    <t>in_treatment</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>PTA</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>IDK</t>
+  </si>
+  <si>
+    <t>EKM</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>KZK</t>
+  </si>
+  <si>
+    <t>KNR</t>
+  </si>
+  <si>
+    <t>WND</t>
+  </si>
+  <si>
+    <t>KZD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,22 +98,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -129,109 +115,383 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.14"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -251,408 +511,408 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>44562</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>2435</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>48658</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>2704</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>18904</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>44563</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>2802</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>50180</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>2606</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>19021</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44564</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>2560</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>43210</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>2150</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>19359</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>44565</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>3640</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>71120</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>2363</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>20180</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44566</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>4801</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>71098</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>1813</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>22910</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44567</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>4649</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>68325</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>2180</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>25157</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>44568</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>5296</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>64577</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>2404</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>27859</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>44569</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>5944</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>60075</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>2463</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>31098</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>44570</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>6238</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>54108</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>2390</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>34902</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>44571</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>5797</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>45691</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>2796</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>37736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>44572</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>9066</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>63898</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>2064</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>44441</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>44573</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>12742</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>72828</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>2552</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>54430</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>44574</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>13468</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>66796</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>3252</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>64529</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>44575</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>16338</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>68971</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>3848</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>76819</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>44576</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>17755</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>65937</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>3819</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>90649</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>44577</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>18123</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>59314</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>4749</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>103864</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>44578</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>22946</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>69373</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>5280</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>18</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>121458</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>44579</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>28481</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>80470</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>7303</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>39</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>142512</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44580</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>34199</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>91983</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>8193</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="4">
         <v>168383</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>44581</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>46387</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>115357</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>15388</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>32</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>199041</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>44582</v>
       </c>
       <c r="B22" s="4"/>
@@ -661,8 +921,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>44583</v>
       </c>
       <c r="B23" s="4"/>
@@ -671,8 +931,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>44584</v>
       </c>
       <c r="B24" s="4"/>
@@ -681,8 +941,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>44585</v>
       </c>
       <c r="B25" s="4"/>
@@ -691,8 +951,8 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>44586</v>
       </c>
       <c r="B26" s="4"/>
@@ -701,8 +961,8 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>44587</v>
       </c>
       <c r="B27" s="4"/>
@@ -711,8 +971,8 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>44588</v>
       </c>
       <c r="B28" s="4"/>
@@ -721,8 +981,8 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>44589</v>
       </c>
       <c r="B29" s="4"/>
@@ -731,8 +991,8 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>44590</v>
       </c>
       <c r="B30" s="4"/>
@@ -741,8 +1001,8 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>44591</v>
       </c>
       <c r="B31" s="4"/>
@@ -752,33 +1012,25 @@
       <c r="F31" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.57"/>
+    <col min="1" max="1" width="13.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -822,93 +1074,306 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>44570</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>44571</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>44572</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>44573</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>44574</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>44575</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>44576</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>44577</v>
       </c>
+      <c r="B17">
+        <v>3917</v>
+      </c>
+      <c r="C17">
+        <v>998</v>
+      </c>
+      <c r="D17">
+        <v>999</v>
+      </c>
+      <c r="E17">
+        <v>715</v>
+      </c>
+      <c r="F17">
+        <v>1377</v>
+      </c>
+      <c r="G17">
+        <v>594</v>
+      </c>
+      <c r="H17">
+        <v>3204</v>
+      </c>
+      <c r="I17">
+        <v>1700</v>
+      </c>
+      <c r="J17">
+        <v>889</v>
+      </c>
+      <c r="K17">
+        <v>821</v>
+      </c>
+      <c r="L17">
+        <v>1643</v>
+      </c>
+      <c r="M17">
+        <v>318</v>
+      </c>
+      <c r="N17">
+        <v>649</v>
+      </c>
+      <c r="O17">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>44578</v>
+      </c>
+      <c r="B18">
+        <v>5863</v>
+      </c>
+      <c r="C18">
+        <v>1264</v>
+      </c>
+      <c r="D18">
+        <v>872</v>
+      </c>
+      <c r="E18">
+        <v>835</v>
+      </c>
+      <c r="F18">
+        <v>1476</v>
+      </c>
+      <c r="G18">
+        <v>605</v>
+      </c>
+      <c r="H18">
+        <v>4100</v>
+      </c>
+      <c r="I18">
+        <v>1861</v>
+      </c>
+      <c r="J18">
+        <v>1191</v>
+      </c>
+      <c r="K18">
+        <v>935</v>
+      </c>
+      <c r="L18">
+        <v>2043</v>
+      </c>
+      <c r="M18">
+        <v>227</v>
+      </c>
+      <c r="N18">
+        <v>1100</v>
+      </c>
+      <c r="O18">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>44579</v>
+      </c>
+      <c r="B19">
+        <v>6911</v>
+      </c>
+      <c r="C19">
+        <v>1604</v>
+      </c>
+      <c r="D19">
+        <v>1328</v>
+      </c>
+      <c r="E19">
+        <v>1087</v>
+      </c>
+      <c r="F19">
+        <v>1758</v>
+      </c>
+      <c r="G19">
+        <v>969</v>
+      </c>
+      <c r="H19">
+        <v>4013</v>
+      </c>
+      <c r="I19">
+        <v>2622</v>
+      </c>
+      <c r="J19">
+        <v>1546</v>
+      </c>
+      <c r="K19">
+        <v>1375</v>
+      </c>
+      <c r="L19">
+        <v>2967</v>
+      </c>
+      <c r="M19">
+        <v>525</v>
+      </c>
+      <c r="N19">
+        <v>1170</v>
+      </c>
+      <c r="O19">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>44580</v>
+      </c>
+      <c r="B20">
+        <v>5684</v>
+      </c>
+      <c r="C20">
+        <v>1742</v>
+      </c>
+      <c r="D20">
+        <v>1944</v>
+      </c>
+      <c r="E20">
+        <v>1339</v>
+      </c>
+      <c r="F20">
+        <v>2333</v>
+      </c>
+      <c r="G20">
+        <v>1435</v>
+      </c>
+      <c r="H20">
+        <v>5953</v>
+      </c>
+      <c r="I20">
+        <v>3604</v>
+      </c>
+      <c r="J20">
+        <v>1920</v>
+      </c>
+      <c r="K20">
+        <v>1579</v>
+      </c>
+      <c r="L20">
+        <v>3386</v>
+      </c>
+      <c r="M20">
+        <v>798</v>
+      </c>
+      <c r="N20">
+        <v>1814</v>
+      </c>
+      <c r="O20">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>44587</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -218,7 +218,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,21 +715,41 @@
       <c r="A25" s="3" t="n">
         <v>44585</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="4" t="n">
+        <v>26514</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>55557</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>30710</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>260271</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>44586</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="4" t="n">
+        <v>55475</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>112281</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>30226</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>112281</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -217,8 +217,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,48 +748,88 @@
         <v>70</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>112281</v>
+        <v>285365</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="4" t="n">
+        <v>49771</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>103553</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>34439</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>300556</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>44588</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="4" t="n">
+        <v>51739</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>116003</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>42653</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>309484</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>44589</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="4" t="n">
+        <v>54537</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>115898</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>30225</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>333447</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>44590</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="4" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>110970</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>47649</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>336202</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -217,8 +217,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,11 +835,21 @@
       <c r="A31" s="3" t="n">
         <v>44591</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="4" t="n">
+        <v>51570</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>103366</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>32701</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>354595</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\kerala_covid_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1403B-40B8-4DE9-AE30-D7DF34C9FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="district_wise" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Covid_report" sheetId="1" r:id="rId1"/>
+    <sheet name="district_wise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,72 +28,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t xml:space="preserve">date</t>
+    <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">today_positive</t>
+    <t>today_positive</t>
   </si>
   <si>
-    <t xml:space="preserve">today_tests</t>
+    <t>today_tests</t>
   </si>
   <si>
-    <t xml:space="preserve">today_negative</t>
+    <t>today_negative</t>
   </si>
   <si>
-    <t xml:space="preserve">today_deaths</t>
+    <t>today_deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">in_treatment</t>
+    <t>in_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">TVM</t>
+    <t>TVM</t>
   </si>
   <si>
-    <t xml:space="preserve">KLM</t>
+    <t>KLM</t>
   </si>
   <si>
-    <t xml:space="preserve">PTA</t>
+    <t>PTA</t>
   </si>
   <si>
-    <t xml:space="preserve">ALP</t>
+    <t>ALP</t>
   </si>
   <si>
-    <t xml:space="preserve">KTM</t>
+    <t>KTM</t>
   </si>
   <si>
-    <t xml:space="preserve">IDK</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t xml:space="preserve">EKM</t>
+    <t>EKM</t>
   </si>
   <si>
-    <t xml:space="preserve">TCR</t>
+    <t>TCR</t>
   </si>
   <si>
-    <t xml:space="preserve">MLP</t>
+    <t>MLP</t>
   </si>
   <si>
-    <t xml:space="preserve">KZK</t>
+    <t>KZK</t>
   </si>
   <si>
-    <t xml:space="preserve">KNR</t>
+    <t>KNR</t>
   </si>
   <si>
-    <t xml:space="preserve">WND</t>
+    <t>WND</t>
   </si>
   <si>
-    <t xml:space="preserve">KZD</t>
+    <t>KZD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,22 +98,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -129,109 +115,383 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.11"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -251,634 +511,626 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>44562</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>2435</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>48658</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>2704</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>18904</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>44563</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>2802</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>50180</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>2606</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>19021</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44564</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>2560</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>43210</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>2150</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>19359</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>44565</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>3640</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>71120</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>2363</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>20180</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44566</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>4801</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>71098</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>1813</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>22910</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44567</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>4649</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>68325</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>2180</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>25157</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>44568</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>5296</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>64577</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>2404</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>27859</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>44569</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>5944</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>60075</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>2463</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>31098</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>44570</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>6238</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>54108</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>2390</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>34902</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>44571</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>5797</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>45691</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>2796</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>37736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>44572</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>9066</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>63898</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>2064</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>44441</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>44573</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>12742</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>72828</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>2552</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>54430</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>44574</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>13468</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>66796</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>3252</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>64529</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>44575</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>16338</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>68971</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>3848</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>76819</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>44576</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>17755</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>65937</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>3819</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>90649</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>44577</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>18123</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>59314</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>4749</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>103864</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>44578</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>22946</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>69373</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>5280</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>18</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>121458</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>44579</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>28481</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>80470</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>7303</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>39</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>142512</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44580</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>34199</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>91983</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>8193</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="4">
         <v>168383</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>44581</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>46387</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>115357</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>15388</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>32</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>199041</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>44582</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>41668</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>95218</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>17053</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>33</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="4">
         <v>223548</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>44583</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>45136</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>100735</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>21324</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>70</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="4">
         <v>247227</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>44584</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>45449</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>101252</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>27961</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="4">
         <v>38</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="4">
         <v>264638</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>44585</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="4">
         <v>26514</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>55557</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>30710</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="4">
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="4">
         <v>260271</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>44586</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>55475</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>112281</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>30226</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="4">
         <v>70</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="4">
         <v>285365</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>44587</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>49771</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="4">
         <v>103553</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>34439</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="4">
         <v>63</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="4">
         <v>300556</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>44588</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>51739</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="4">
         <v>116003</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>42653</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="4">
         <v>11</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="4">
         <v>309484</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>44589</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>54537</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="4">
         <v>115898</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>30225</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="4">
         <v>13</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="4">
         <v>333447</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>44590</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>50812</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="4">
         <v>110970</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>47649</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="4">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="4">
         <v>336202</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>44591</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>51570</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="4">
         <v>103366</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>32701</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="4">
         <v>14</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="4">
         <v>354595</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.55"/>
+    <col min="1" max="1" width="13.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -922,311 +1174,793 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>44570</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>44571</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>44572</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>44573</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>44574</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>44575</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>44576</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>44577</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>3917</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>998</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>999</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>715</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>1377</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>594</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>3204</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>1700</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>889</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>821</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>1643</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>318</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>649</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>299</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>44578</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>5863</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1264</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>872</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>835</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>1476</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>605</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>4100</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>1861</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>1191</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>935</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>2043</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>227</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>1100</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>574</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>44579</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>6911</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1604</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>1328</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>1087</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1758</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>969</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>4013</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>2622</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>1546</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>1375</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>2967</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>525</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>1170</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>606</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>44580</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>5684</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>1742</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>1944</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>1339</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>2333</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>1435</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>5953</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>3604</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>1920</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>1579</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>3386</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>798</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>1814</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>668</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>44581</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="B21">
+        <v>9720</v>
+      </c>
+      <c r="C21">
+        <v>3002</v>
+      </c>
+      <c r="D21">
+        <v>1497</v>
+      </c>
+      <c r="E21">
+        <v>1926</v>
+      </c>
+      <c r="F21">
+        <v>3091</v>
+      </c>
+      <c r="G21">
+        <v>1441</v>
+      </c>
+      <c r="H21">
+        <v>9605</v>
+      </c>
+      <c r="I21">
+        <v>3627</v>
+      </c>
+      <c r="J21">
+        <v>2268</v>
+      </c>
+      <c r="K21">
+        <v>2259</v>
+      </c>
+      <c r="L21">
+        <v>4016</v>
+      </c>
+      <c r="M21">
+        <v>827</v>
+      </c>
+      <c r="N21">
+        <v>1973</v>
+      </c>
+      <c r="O21">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>44582</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="B22">
+        <v>7896</v>
+      </c>
+      <c r="C22">
+        <v>2660</v>
+      </c>
+      <c r="D22">
+        <v>1708</v>
+      </c>
+      <c r="E22">
+        <v>1798</v>
+      </c>
+      <c r="F22">
+        <v>3182</v>
+      </c>
+      <c r="G22">
+        <v>1354</v>
+      </c>
+      <c r="H22">
+        <v>7339</v>
+      </c>
+      <c r="I22">
+        <v>3667</v>
+      </c>
+      <c r="J22">
+        <v>2345</v>
+      </c>
+      <c r="K22">
+        <v>2148</v>
+      </c>
+      <c r="L22">
+        <v>4143</v>
+      </c>
+      <c r="M22">
+        <v>850</v>
+      </c>
+      <c r="N22">
+        <v>2015</v>
+      </c>
+      <c r="O22">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>44583</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="B23">
+        <v>7430</v>
+      </c>
+      <c r="C23">
+        <v>2882</v>
+      </c>
+      <c r="D23">
+        <v>2012</v>
+      </c>
+      <c r="E23">
+        <v>2168</v>
+      </c>
+      <c r="F23">
+        <v>3053</v>
+      </c>
+      <c r="G23">
+        <v>1637</v>
+      </c>
+      <c r="H23">
+        <v>8143</v>
+      </c>
+      <c r="I23">
+        <v>5120</v>
+      </c>
+      <c r="J23">
+        <v>2607</v>
+      </c>
+      <c r="K23">
+        <v>2431</v>
+      </c>
+      <c r="L23">
+        <v>4385</v>
+      </c>
+      <c r="M23">
+        <v>972</v>
+      </c>
+      <c r="N23">
+        <v>1673</v>
+      </c>
+      <c r="O23">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>44584</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="B24">
+        <v>8980</v>
+      </c>
+      <c r="C24">
+        <v>2667</v>
+      </c>
+      <c r="D24">
+        <v>1723</v>
+      </c>
+      <c r="E24">
+        <v>1564</v>
+      </c>
+      <c r="F24">
+        <v>2216</v>
+      </c>
+      <c r="G24">
+        <v>1433</v>
+      </c>
+      <c r="H24">
+        <v>11091</v>
+      </c>
+      <c r="I24">
+        <v>2779</v>
+      </c>
+      <c r="J24">
+        <v>2137</v>
+      </c>
+      <c r="K24">
+        <v>2371</v>
+      </c>
+      <c r="L24">
+        <v>5581</v>
+      </c>
+      <c r="M24">
+        <v>941</v>
+      </c>
+      <c r="N24">
+        <v>1336</v>
+      </c>
+      <c r="O24">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>44585</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="B25">
+        <v>3256</v>
+      </c>
+      <c r="C25">
+        <v>2421</v>
+      </c>
+      <c r="D25">
+        <v>1065</v>
+      </c>
+      <c r="E25">
+        <v>1165</v>
+      </c>
+      <c r="F25">
+        <v>1900</v>
+      </c>
+      <c r="G25">
+        <v>1033</v>
+      </c>
+      <c r="H25">
+        <v>4443</v>
+      </c>
+      <c r="I25">
+        <v>2687</v>
+      </c>
+      <c r="J25">
+        <v>1498</v>
+      </c>
+      <c r="K25">
+        <v>1710</v>
+      </c>
+      <c r="L25">
+        <v>2979</v>
+      </c>
+      <c r="M25">
+        <v>524</v>
+      </c>
+      <c r="N25">
+        <v>1260</v>
+      </c>
+      <c r="O25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>44586</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="B26">
+        <v>8606</v>
+      </c>
+      <c r="C26">
+        <v>4452</v>
+      </c>
+      <c r="D26">
+        <v>2311</v>
+      </c>
+      <c r="E26">
+        <v>2561</v>
+      </c>
+      <c r="F26">
+        <v>3672</v>
+      </c>
+      <c r="G26">
+        <v>2452</v>
+      </c>
+      <c r="H26">
+        <v>9405</v>
+      </c>
+      <c r="I26">
+        <v>5520</v>
+      </c>
+      <c r="J26">
+        <v>3550</v>
+      </c>
+      <c r="K26">
+        <v>3138</v>
+      </c>
+      <c r="L26">
+        <v>4432</v>
+      </c>
+      <c r="M26">
+        <v>1070</v>
+      </c>
+      <c r="N26">
+        <v>2578</v>
+      </c>
+      <c r="O26">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>44587</v>
       </c>
+      <c r="B27">
+        <v>6945</v>
+      </c>
+      <c r="C27">
+        <v>4177</v>
+      </c>
+      <c r="D27">
+        <v>2039</v>
+      </c>
+      <c r="E27">
+        <v>2506</v>
+      </c>
+      <c r="F27">
+        <v>3922</v>
+      </c>
+      <c r="G27">
+        <v>2203</v>
+      </c>
+      <c r="H27">
+        <v>9567</v>
+      </c>
+      <c r="I27">
+        <v>4449</v>
+      </c>
+      <c r="J27">
+        <v>2683</v>
+      </c>
+      <c r="K27">
+        <v>2517</v>
+      </c>
+      <c r="L27">
+        <v>4196</v>
+      </c>
+      <c r="M27">
+        <v>1368</v>
+      </c>
+      <c r="N27">
+        <v>2333</v>
+      </c>
+      <c r="O27">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B28">
+        <v>7675</v>
+      </c>
+      <c r="C28">
+        <v>4511</v>
+      </c>
+      <c r="D28">
+        <v>2063</v>
+      </c>
+      <c r="E28">
+        <v>2291</v>
+      </c>
+      <c r="F28">
+        <v>3834</v>
+      </c>
+      <c r="G28">
+        <v>1986</v>
+      </c>
+      <c r="H28">
+        <v>9708</v>
+      </c>
+      <c r="I28">
+        <v>3934</v>
+      </c>
+      <c r="J28">
+        <v>3356</v>
+      </c>
+      <c r="K28">
+        <v>2855</v>
+      </c>
+      <c r="L28">
+        <v>5001</v>
+      </c>
+      <c r="M28">
+        <v>1344</v>
+      </c>
+      <c r="N28">
+        <v>2152</v>
+      </c>
+      <c r="O28">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B29">
+        <v>6735</v>
+      </c>
+      <c r="C29">
+        <v>4138</v>
+      </c>
+      <c r="D29">
+        <v>2021</v>
+      </c>
+      <c r="E29">
+        <v>2323</v>
+      </c>
+      <c r="F29">
+        <v>4182</v>
+      </c>
+      <c r="G29">
+        <v>2485</v>
+      </c>
+      <c r="H29">
+        <v>10571</v>
+      </c>
+      <c r="I29">
+        <v>6082</v>
+      </c>
+      <c r="J29">
+        <v>3248</v>
+      </c>
+      <c r="K29">
+        <v>3003</v>
+      </c>
+      <c r="L29">
+        <v>4935</v>
+      </c>
+      <c r="M29">
+        <v>1379</v>
+      </c>
+      <c r="N29">
+        <v>2314</v>
+      </c>
+      <c r="O29">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>44590</v>
+      </c>
+      <c r="B30">
+        <v>6647</v>
+      </c>
+      <c r="C30">
+        <v>3747</v>
+      </c>
+      <c r="D30">
+        <v>2176</v>
+      </c>
+      <c r="E30">
+        <v>2213</v>
+      </c>
+      <c r="F30">
+        <v>4123</v>
+      </c>
+      <c r="G30">
+        <v>1936</v>
+      </c>
+      <c r="H30">
+        <v>11103</v>
+      </c>
+      <c r="I30">
+        <v>3800</v>
+      </c>
+      <c r="J30">
+        <v>2748</v>
+      </c>
+      <c r="K30">
+        <v>2996</v>
+      </c>
+      <c r="L30">
+        <v>4490</v>
+      </c>
+      <c r="M30">
+        <v>1593</v>
+      </c>
+      <c r="N30">
+        <v>2252</v>
+      </c>
+      <c r="O30">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>44591</v>
+      </c>
+      <c r="B31">
+        <v>5746</v>
+      </c>
+      <c r="C31">
+        <v>3836</v>
+      </c>
+      <c r="D31">
+        <v>2517</v>
+      </c>
+      <c r="E31">
+        <v>2861</v>
+      </c>
+      <c r="F31">
+        <v>3889</v>
+      </c>
+      <c r="G31">
+        <v>1565</v>
+      </c>
+      <c r="H31">
+        <v>9704</v>
+      </c>
+      <c r="I31">
+        <v>7289</v>
+      </c>
+      <c r="J31">
+        <v>3412</v>
+      </c>
+      <c r="K31">
+        <v>2796</v>
+      </c>
+      <c r="L31">
+        <v>3872</v>
+      </c>
+      <c r="M31">
+        <v>1338</v>
+      </c>
+      <c r="N31">
+        <v>1976</v>
+      </c>
+      <c r="O31">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>44592</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\kerala_covid_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1403B-40B8-4DE9-AE30-D7DF34C9FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_report" sheetId="1" r:id="rId1"/>
-    <sheet name="district_wise" sheetId="2" r:id="rId2"/>
+    <sheet name="Covid_report" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="district_wise" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,68 +23,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>today_positive</t>
-  </si>
-  <si>
-    <t>today_tests</t>
-  </si>
-  <si>
-    <t>today_negative</t>
-  </si>
-  <si>
-    <t>today_deaths</t>
-  </si>
-  <si>
-    <t>in_treatment</t>
-  </si>
-  <si>
-    <t>TVM</t>
-  </si>
-  <si>
-    <t>KLM</t>
-  </si>
-  <si>
-    <t>PTA</t>
-  </si>
-  <si>
-    <t>ALP</t>
-  </si>
-  <si>
-    <t>KTM</t>
-  </si>
-  <si>
-    <t>IDK</t>
-  </si>
-  <si>
-    <t>EKM</t>
-  </si>
-  <si>
-    <t>TCR</t>
-  </si>
-  <si>
-    <t>MLP</t>
-  </si>
-  <si>
-    <t>KZK</t>
-  </si>
-  <si>
-    <t>KNR</t>
-  </si>
-  <si>
-    <t>WND</t>
-  </si>
-  <si>
-    <t>KZD</t>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,7 +97,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -115,383 +129,109 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="1024" width="9.109375" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,626 +251,694 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>44562</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="n">
         <v>2435</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>48658</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>2704</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="n">
         <v>18904</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>44563</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="n">
         <v>2802</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>50180</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>2606</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>19021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>44564</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="n">
         <v>2560</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>43210</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>2150</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>19359</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="n">
         <v>3640</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>71120</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>2363</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>20180</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="n">
         <v>4801</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>71098</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>1813</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>22910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="n">
         <v>4649</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>68325</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>2180</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>25157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="n">
         <v>5296</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>64577</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>2404</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>27859</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>44569</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="n">
         <v>5944</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>60075</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>2463</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>31098</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>44570</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="n">
         <v>6238</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>54108</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>2390</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>34902</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="n">
         <v>5797</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>45691</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>2796</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>37736</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="n">
         <v>9066</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>63898</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>2064</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="n">
         <v>12742</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>72828</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>2552</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>54430</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="n">
         <v>13468</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>66796</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>3252</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>64529</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>44575</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="n">
         <v>16338</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>68971</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>3848</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>76819</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="n">
         <v>17755</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>65937</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>3819</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="4" t="n">
         <v>90649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>44577</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="n">
         <v>18123</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>59314</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>4749</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="4" t="n">
         <v>103864</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="n">
         <v>22946</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>69373</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>5280</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="4" t="n">
         <v>121458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>44579</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="n">
         <v>28481</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>80470</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>7303</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="4" t="n">
         <v>142512</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>44580</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="n">
         <v>34199</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>91983</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>8193</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="4" t="n">
         <v>168383</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>44581</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="n">
         <v>46387</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>115357</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>15388</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="4" t="n">
         <v>199041</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>44582</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="4" t="n">
         <v>41668</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>95218</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>17053</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="4" t="n">
         <v>223548</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>44583</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="4" t="n">
         <v>45136</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="n">
         <v>100735</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>21324</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="4" t="n">
         <v>247227</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>44584</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>101252</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>27961</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="4" t="n">
         <v>264638</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>44585</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="n">
         <v>26514</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="n">
         <v>55557</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>30710</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="4" t="n">
         <v>260271</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>44586</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="n">
         <v>55475</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>112281</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>30226</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="4" t="n">
         <v>285365</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="n">
         <v>49771</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="n">
         <v>103553</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>34439</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="n">
         <v>300556</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>44588</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="4" t="n">
         <v>51739</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="n">
         <v>116003</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="n">
         <v>42653</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="4" t="n">
         <v>309484</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>44589</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="4" t="n">
         <v>54537</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="n">
         <v>115898</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="n">
         <v>30225</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="4" t="n">
         <v>333447</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>44590</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="4" t="n">
         <v>50812</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="n">
         <v>110970</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="n">
         <v>47649</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="4" t="n">
         <v>336202</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>44591</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="4" t="n">
         <v>51570</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="n">
         <v>103366</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="n">
         <v>32701</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="4" t="n">
         <v>354595</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>42154</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>99410</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>38458</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>357552</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>44600</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1174,793 +982,798 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>44570</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>44571</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>44572</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
         <v>44574</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
         <v>44575</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
         <v>44576</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
         <v>44577</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>3917</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>715</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>1377</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>594</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>3204</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0" t="n">
         <v>1700</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>889</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0" t="n">
         <v>821</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0" t="n">
         <v>1643</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0" t="n">
         <v>649</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
         <v>44578</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>5863</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>1264</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>872</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>1476</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0" t="n">
         <v>605</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>4100</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0" t="n">
         <v>1861</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0" t="n">
         <v>1191</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0" t="n">
         <v>935</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>2043</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0" t="n">
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
         <v>44579</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>6911</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>1604</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>1328</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>1087</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1758</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>969</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>4013</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>2622</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>1546</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0" t="n">
         <v>1375</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0" t="n">
         <v>2967</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>1170</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>44580</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>5684</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>1742</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>1944</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>1339</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>2333</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>1435</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>5953</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>3604</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>1920</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0" t="n">
         <v>1579</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>3386</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0" t="n">
         <v>798</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0" t="n">
         <v>1814</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
         <v>44581</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>9720</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>3002</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>1497</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>1926</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>3091</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0" t="n">
         <v>1441</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>9605</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0" t="n">
         <v>3627</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0" t="n">
         <v>2268</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0" t="n">
         <v>2259</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0" t="n">
         <v>4016</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0" t="n">
         <v>827</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0" t="n">
         <v>1973</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0" t="n">
         <v>1135</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
         <v>44582</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>7896</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>2660</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>1708</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>1798</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>3182</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0" t="n">
         <v>1354</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>7339</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0" t="n">
         <v>3667</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0" t="n">
         <v>2345</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>2148</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0" t="n">
         <v>4143</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0" t="n">
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
         <v>44583</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>7430</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>2882</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>2168</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>3053</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0" t="n">
         <v>1637</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0" t="n">
         <v>8143</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0" t="n">
         <v>5120</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0" t="n">
         <v>2607</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0" t="n">
         <v>2431</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0" t="n">
         <v>4385</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0" t="n">
         <v>972</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0" t="n">
         <v>1673</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0" t="n">
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
         <v>44584</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>8980</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>2667</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>1723</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>1564</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>2216</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0" t="n">
         <v>1433</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0" t="n">
         <v>11091</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0" t="n">
         <v>2779</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0" t="n">
         <v>2137</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0" t="n">
         <v>2371</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0" t="n">
         <v>5581</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0" t="n">
         <v>941</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0" t="n">
         <v>1336</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
         <v>44585</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>3256</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>2421</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>1065</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>1165</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>1900</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0" t="n">
         <v>1033</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0" t="n">
         <v>4443</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0" t="n">
         <v>2687</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0" t="n">
         <v>1498</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0" t="n">
         <v>1710</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0" t="n">
         <v>2979</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0" t="n">
         <v>1260</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0" t="n">
         <v>573</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
         <v>44586</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>8606</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>4452</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>2311</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>2561</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>3672</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>2452</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0" t="n">
         <v>9405</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0" t="n">
         <v>5520</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0" t="n">
         <v>3550</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0" t="n">
         <v>3138</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0" t="n">
         <v>4432</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0" t="n">
         <v>1070</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0" t="n">
         <v>2578</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0" t="n">
         <v>1728</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
         <v>44587</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>6945</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>4177</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>2039</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2506</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>3922</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>2203</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>9567</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0" t="n">
         <v>4449</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0" t="n">
         <v>2683</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0" t="n">
         <v>2517</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0" t="n">
         <v>4196</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0" t="n">
         <v>1368</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0" t="n">
         <v>2333</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0" t="n">
         <v>866</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
         <v>44588</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>7675</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>4511</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>2063</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>2291</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>3834</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0" t="n">
         <v>9708</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0" t="n">
         <v>3934</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0" t="n">
         <v>3356</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0" t="n">
         <v>2855</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>5001</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0" t="n">
         <v>1344</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0" t="n">
         <v>2152</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0" t="n">
         <v>1029</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
         <v>44589</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>6735</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>4138</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>2323</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>4182</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0" t="n">
         <v>2485</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0" t="n">
         <v>10571</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0" t="n">
         <v>6082</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0" t="n">
         <v>3248</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0" t="n">
         <v>3003</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0" t="n">
         <v>4935</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0" t="n">
         <v>1379</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0" t="n">
         <v>2314</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0" t="n">
         <v>1121</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
         <v>44590</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>6647</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>3747</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>2176</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>2213</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>4123</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0" t="n">
         <v>1936</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0" t="n">
         <v>11103</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0" t="n">
         <v>3800</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0" t="n">
         <v>2748</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0" t="n">
         <v>2996</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>4490</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0" t="n">
         <v>1593</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>2252</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0" t="n">
         <v>966</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
         <v>44591</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>5746</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>3836</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>2517</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>2861</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>3889</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>1565</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>9704</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0" t="n">
         <v>7289</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0" t="n">
         <v>3412</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0" t="n">
         <v>2796</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>3872</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0" t="n">
         <v>1338</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>1976</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0" t="n">
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
         <v>44592</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -217,8 +217,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,6 +874,21 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>44593</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>51887</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>121048</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>40383</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>367847</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -217,18 +217,18 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -867,8 +867,8 @@
       <c r="E32" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="n">
-        <v>357552</v>
+      <c r="F32" s="4" t="n">
+        <v>354596</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,23 +887,68 @@
       <c r="E33" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F33" s="1" t="n">
-        <v>367847</v>
+      <c r="F33" s="4" t="n">
+        <v>354597</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>44594</v>
       </c>
+      <c r="B34" s="1" t="n">
+        <v>52199</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>124611</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>41715</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>354598</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>44595</v>
       </c>
+      <c r="B35" s="1" t="n">
+        <v>42677</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>114610</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>50821</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>354599</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>44596</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>38684</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>120496</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>41037</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>366120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +993,7 @@
       <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.55"/>
   </cols>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -137,10 +137,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -169,12 +169,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +183,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,21 +213,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="20.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -251,607 +247,607 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>44562</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="1" t="n">
         <v>2435</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="1" t="n">
         <v>48658</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="1" t="n">
         <v>2704</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="1" t="n">
         <v>18904</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>44563</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="1" t="n">
         <v>2802</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="1" t="n">
         <v>50180</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="1" t="n">
         <v>2606</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="1" t="n">
         <v>19021</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>44564</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2560</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="1" t="n">
         <v>43210</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="1" t="n">
         <v>2150</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="1" t="n">
         <v>19359</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="1" t="n">
         <v>3640</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="1" t="n">
         <v>71120</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="1" t="n">
         <v>2363</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="1" t="n">
         <v>20180</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="1" t="n">
         <v>4801</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="1" t="n">
         <v>71098</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="1" t="n">
         <v>1813</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="1" t="n">
         <v>22910</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="1" t="n">
         <v>4649</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="1" t="n">
         <v>68325</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="1" t="n">
         <v>2180</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="1" t="n">
         <v>25157</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="1" t="n">
         <v>5296</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="1" t="n">
         <v>64577</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="1" t="n">
         <v>2404</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="1" t="n">
         <v>27859</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>44569</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="1" t="n">
         <v>5944</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="1" t="n">
         <v>60075</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="1" t="n">
         <v>2463</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="1" t="n">
         <v>31098</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>44570</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="1" t="n">
         <v>6238</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="1" t="n">
         <v>54108</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="1" t="n">
         <v>2390</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="1" t="n">
         <v>34902</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="1" t="n">
         <v>5797</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="1" t="n">
         <v>45691</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="1" t="n">
         <v>2796</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="1" t="n">
         <v>37736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="1" t="n">
         <v>9066</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="1" t="n">
         <v>63898</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="1" t="n">
         <v>2064</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="1" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="1" t="n">
         <v>12742</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="1" t="n">
         <v>72828</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="1" t="n">
         <v>2552</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="1" t="n">
         <v>54430</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="1" t="n">
         <v>13468</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="1" t="n">
         <v>66796</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="1" t="n">
         <v>3252</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="1" t="n">
         <v>64529</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>44575</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="1" t="n">
         <v>16338</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="1" t="n">
         <v>68971</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="1" t="n">
         <v>3848</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="1" t="n">
         <v>76819</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="1" t="n">
         <v>17755</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="1" t="n">
         <v>65937</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="1" t="n">
         <v>3819</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="1" t="n">
         <v>90649</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44577</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="1" t="n">
         <v>18123</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="1" t="n">
         <v>59314</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="1" t="n">
         <v>4749</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="1" t="n">
         <v>103864</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="1" t="n">
         <v>22946</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="1" t="n">
         <v>69373</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="1" t="n">
         <v>5280</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="1" t="n">
         <v>121458</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44579</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="1" t="n">
         <v>28481</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="1" t="n">
         <v>80470</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="1" t="n">
         <v>7303</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="1" t="n">
         <v>142512</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>44580</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="1" t="n">
         <v>34199</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="1" t="n">
         <v>91983</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="1" t="n">
         <v>8193</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="1" t="n">
         <v>168383</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>44581</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="1" t="n">
         <v>46387</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="1" t="n">
         <v>115357</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="1" t="n">
         <v>15388</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="1" t="n">
         <v>199041</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>44582</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="1" t="n">
         <v>41668</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="1" t="n">
         <v>95218</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="1" t="n">
         <v>17053</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="1" t="n">
         <v>223548</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>44583</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="1" t="n">
         <v>45136</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="1" t="n">
         <v>100735</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="1" t="n">
         <v>21324</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="1" t="n">
         <v>247227</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>44584</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="1" t="n">
         <v>45449</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="1" t="n">
         <v>101252</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="1" t="n">
         <v>27961</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="1" t="n">
         <v>264638</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>44585</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="1" t="n">
         <v>26514</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="1" t="n">
         <v>55557</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="1" t="n">
         <v>30710</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="1" t="n">
         <v>260271</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>44586</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="1" t="n">
         <v>55475</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="1" t="n">
         <v>112281</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="1" t="n">
         <v>30226</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="1" t="n">
         <v>285365</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="1" t="n">
         <v>49771</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="1" t="n">
         <v>103553</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="1" t="n">
         <v>34439</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="1" t="n">
         <v>300556</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>44588</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="1" t="n">
         <v>51739</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="1" t="n">
         <v>116003</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="1" t="n">
         <v>42653</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="1" t="n">
         <v>309484</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>44589</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="1" t="n">
         <v>54537</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="1" t="n">
         <v>115898</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="1" t="n">
         <v>30225</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="1" t="n">
         <v>333447</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>44590</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="1" t="n">
         <v>50812</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="1" t="n">
         <v>110970</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="1" t="n">
         <v>47649</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="1" t="n">
         <v>336202</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>44591</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="1" t="n">
         <v>51570</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="1" t="n">
         <v>103366</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="1" t="n">
         <v>32701</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="1" t="n">
         <v>354595</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>44592</v>
       </c>
@@ -867,11 +863,11 @@
       <c r="E32" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="1" t="n">
         <v>354596</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>44593</v>
       </c>
@@ -887,11 +883,11 @@
       <c r="E33" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="1" t="n">
         <v>354597</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>44594</v>
       </c>
@@ -907,11 +903,11 @@
       <c r="E34" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="1" t="n">
         <v>354598</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>44595</v>
       </c>
@@ -927,11 +923,11 @@
       <c r="E35" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="1" t="n">
         <v>354599</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>44596</v>
       </c>
@@ -951,22 +947,52 @@
         <v>366120</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>44597</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <v>33538</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>102778</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>46813</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>352399</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>44598</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="n">
+        <v>26729</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>88098</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>49261</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>329348</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>44599</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>44600</v>
       </c>
@@ -993,132 +1019,132 @@
       <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="13.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>44562</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>44563</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>44564</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>44565</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>44566</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>44567</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>44568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="5" t="n">
         <v>44569</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="5" t="n">
         <v>44570</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="5" t="n">
         <v>44571</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="5" t="n">
         <v>44572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="5" t="n">
         <v>44573</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="5" t="n">
         <v>44574</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="5" t="n">
         <v>44575</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="5" t="n">
         <v>44576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="5" t="n">
         <v>44577</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -1165,7 +1191,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="5" t="n">
         <v>44578</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1212,7 +1238,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="5" t="n">
         <v>44579</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1259,7 +1285,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="5" t="n">
         <v>44580</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1306,7 +1332,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="5" t="n">
         <v>44581</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1353,7 +1379,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="5" t="n">
         <v>44582</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1400,7 +1426,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="5" t="n">
         <v>44583</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1447,7 +1473,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="5" t="n">
         <v>44584</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1494,7 +1520,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="5" t="n">
         <v>44585</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1541,7 +1567,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="5" t="n">
         <v>44586</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1588,7 +1614,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="5" t="n">
         <v>44587</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1635,7 +1661,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="5" t="n">
         <v>44588</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -1682,7 +1708,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="5" t="n">
         <v>44589</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -1729,7 +1755,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="5" t="n">
         <v>44590</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -1776,7 +1802,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="5" t="n">
         <v>44591</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1823,7 +1849,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="5" t="n">
         <v>44592</v>
       </c>
     </row>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -213,8 +213,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="20.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,6 +990,21 @@
     <row r="39" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>44599</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>22524</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>78682</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>49586</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>301424</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1019,7 +1034,7 @@
       <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="13.55"/>
   </cols>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\kerala_covid_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC178FD4-6CF6-4DFC-ADE0-3725ACFDA8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="district_wise" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Covid_report" sheetId="1" r:id="rId1"/>
+    <sheet name="district_wise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,72 +28,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t xml:space="preserve">date</t>
+    <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">today_positive</t>
+    <t>today_positive</t>
   </si>
   <si>
-    <t xml:space="preserve">today_tests</t>
+    <t>today_tests</t>
   </si>
   <si>
-    <t xml:space="preserve">today_negative</t>
+    <t>today_negative</t>
   </si>
   <si>
-    <t xml:space="preserve">today_deaths</t>
+    <t>today_deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">in_treatment</t>
+    <t>in_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">TVM</t>
+    <t>TVM</t>
   </si>
   <si>
-    <t xml:space="preserve">KLM</t>
+    <t>KLM</t>
   </si>
   <si>
-    <t xml:space="preserve">PTA</t>
+    <t>PTA</t>
   </si>
   <si>
-    <t xml:space="preserve">ALP</t>
+    <t>ALP</t>
   </si>
   <si>
-    <t xml:space="preserve">KTM</t>
+    <t>KTM</t>
   </si>
   <si>
-    <t xml:space="preserve">IDK</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t xml:space="preserve">EKM</t>
+    <t>EKM</t>
   </si>
   <si>
-    <t xml:space="preserve">TCR</t>
+    <t>TCR</t>
   </si>
   <si>
-    <t xml:space="preserve">MLP</t>
+    <t>MLP</t>
   </si>
   <si>
-    <t xml:space="preserve">KZK</t>
+    <t>KZK</t>
   </si>
   <si>
-    <t xml:space="preserve">KNR</t>
+    <t>KNR</t>
   </si>
   <si>
-    <t xml:space="preserve">WND</t>
+    <t>WND</t>
   </si>
   <si>
-    <t xml:space="preserve">KZD</t>
+    <t>KZD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,22 +98,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -129,105 +115,380 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="20.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.13"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -247,799 +508,791 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>44562</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>2435</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>48658</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>2704</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>18904</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>44563</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>2802</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>50180</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>2606</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>19021</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44564</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2560</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>43210</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>2150</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>19359</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>44565</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>3640</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>71120</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>2363</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>20180</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44566</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>4801</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>71098</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>1813</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>22910</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44567</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>4649</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>68325</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>2180</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>25157</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>44568</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>5296</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>64577</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>2404</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>27859</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>44569</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>5944</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>60075</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>2463</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>31098</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>44570</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>6238</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>54108</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>2390</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>34902</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>44571</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>5797</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>45691</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>2796</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>37736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>44572</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>9066</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>63898</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>2064</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>44441</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>44573</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>12742</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>72828</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>2552</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>23</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>54430</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>44574</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>13468</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>66796</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>3252</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>64529</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>44575</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>16338</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>68971</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>3848</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>76819</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>44576</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>17755</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>65937</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>3819</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>90649</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>44577</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>18123</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>59314</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>4749</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>103864</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>44578</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>22946</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>69373</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>5280</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>18</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>121458</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>44579</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>28481</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>80470</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>7303</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>39</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>142512</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44580</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>34199</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>91983</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>8193</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>49</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>168383</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>44581</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>46387</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>115357</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>15388</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>32</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>199041</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>44582</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>41668</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>95218</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>17053</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>33</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>223548</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>44583</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>45136</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>100735</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>21324</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>70</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>247227</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>44584</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>45449</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>101252</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>27961</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>38</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>264638</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>44585</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>26514</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>55557</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>30710</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1">
         <v>260271</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>44586</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>55475</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>112281</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>30226</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>70</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="1">
         <v>285365</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>44587</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>49771</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>103553</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>34439</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>63</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>300556</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>44588</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>51739</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>116003</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>42653</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>11</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>309484</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>44589</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>54537</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>115898</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>30225</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>13</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>333447</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>44590</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>50812</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>110970</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>47649</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>336202</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>44591</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>51570</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>103366</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>32701</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>14</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>354595</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>44592</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>42154</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>99410</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>38458</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>354596</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>44593</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>51887</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>121048</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>40383</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="1">
         <v>24</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>354597</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>44594</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>52199</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>124611</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>41715</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="1">
         <v>29</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>354598</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>44595</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>42677</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>114610</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>50821</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>36</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>354599</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>44596</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>38684</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>120496</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>41037</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>28</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>366120</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>44597</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>33538</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>102778</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>46813</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="1">
         <v>22</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>352399</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>44598</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>26729</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>88098</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>49261</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>22</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>329348</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>44599</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>22524</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>78682</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>49586</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="1">
         <v>14</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="1">
         <v>301424</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>44600</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="13.55"/>
+    <col min="1" max="1" width="13.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1083,798 +1336,1251 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>44564</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>44565</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>44566</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>44567</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>44568</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>44569</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>44570</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>44572</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>44573</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>44574</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>44575</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>44576</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>44577</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>3917</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>998</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>999</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>715</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>1377</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>594</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>3204</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>1700</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>889</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>821</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>1643</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>318</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>649</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>299</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>44578</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>5863</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1264</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>872</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>835</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>1476</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>605</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>4100</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>1861</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>1191</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>935</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>2043</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>227</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>1100</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>574</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>44579</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>6911</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1604</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>1328</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>1087</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1758</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>969</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>4013</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>2622</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>1546</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>1375</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>2967</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>525</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>1170</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>606</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>44580</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>5684</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>1742</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>1944</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>1339</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>2333</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>1435</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>5953</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>3604</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>1920</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>1579</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>3386</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>798</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>1814</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>668</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>44581</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>9720</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>3002</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>1497</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>1926</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>3091</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>1441</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>9605</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>3627</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>2268</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>2259</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>4016</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>827</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21">
         <v>1973</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21">
         <v>1135</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>44582</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>7896</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>2660</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>1708</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>1798</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>3182</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>1354</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>7339</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>3667</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>2345</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>2148</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>4143</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>850</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22">
         <v>2015</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22">
         <v>563</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>44583</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>7430</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>2882</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>2012</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>2168</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>3053</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>1637</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>8143</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>5120</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23">
         <v>2607</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>2431</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>4385</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>972</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>1673</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23">
         <v>623</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>44584</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>8980</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>2667</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>1723</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>1564</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>2216</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>1433</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>11091</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>2779</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24">
         <v>2137</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>2371</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>5581</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24">
         <v>941</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24">
         <v>1336</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24">
         <v>630</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>44585</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>3256</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>2421</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>1065</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>1165</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>1900</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>1033</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>4443</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>2687</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>1498</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>1710</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>2979</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25">
         <v>524</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25">
         <v>1260</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25">
         <v>573</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>44586</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>8606</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>4452</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>2311</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>2561</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>3672</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>2452</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>9405</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>5520</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>3550</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>3138</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>4432</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>1070</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>2578</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26">
         <v>1728</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>44587</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>6945</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>4177</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>2039</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2506</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>3922</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>2203</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>9567</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>4449</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>2683</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>2517</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>4196</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>1368</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>2333</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27">
         <v>866</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>44588</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>7675</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>4511</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>2063</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>2291</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>3834</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>1986</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>9708</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>3934</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>3356</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>2855</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>5001</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28">
         <v>1344</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>2152</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>1029</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>44589</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>6735</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>4138</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>2021</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>2323</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>4182</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>2485</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>10571</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>6082</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>3248</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>3003</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>4935</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>1379</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>2314</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>1121</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>44590</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>6647</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3747</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>2176</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>2213</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>4123</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>1936</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>11103</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>3800</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>2748</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>2996</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>4490</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30">
         <v>1593</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>2252</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>966</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>44591</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>5746</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>3836</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>2517</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>2861</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>3889</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>1565</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>9704</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>7289</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>3412</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>2796</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>3872</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>1338</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>1976</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>769</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>44592</v>
       </c>
+      <c r="B32">
+        <v>3271</v>
+      </c>
+      <c r="C32">
+        <v>2817</v>
+      </c>
+      <c r="D32">
+        <v>1338</v>
+      </c>
+      <c r="E32">
+        <v>2074</v>
+      </c>
+      <c r="F32">
+        <v>2840</v>
+      </c>
+      <c r="G32">
+        <v>1451</v>
+      </c>
+      <c r="H32">
+        <v>9453</v>
+      </c>
+      <c r="I32">
+        <v>6177</v>
+      </c>
+      <c r="J32">
+        <v>2718</v>
+      </c>
+      <c r="K32">
+        <v>2463</v>
+      </c>
+      <c r="L32">
+        <v>4074</v>
+      </c>
+      <c r="M32">
+        <v>1062</v>
+      </c>
+      <c r="N32">
+        <v>1572</v>
+      </c>
+      <c r="O32">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B33">
+        <v>6121</v>
+      </c>
+      <c r="C33">
+        <v>3999</v>
+      </c>
+      <c r="D33">
+        <v>2678</v>
+      </c>
+      <c r="E33">
+        <v>2967</v>
+      </c>
+      <c r="F33">
+        <v>3601</v>
+      </c>
+      <c r="G33">
+        <v>2130</v>
+      </c>
+      <c r="H33">
+        <v>9331</v>
+      </c>
+      <c r="I33">
+        <v>7306</v>
+      </c>
+      <c r="J33">
+        <v>3049</v>
+      </c>
+      <c r="K33">
+        <v>2838</v>
+      </c>
+      <c r="L33">
+        <v>4234</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>2081</v>
+      </c>
+      <c r="O33">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44594</v>
+      </c>
+      <c r="B34">
+        <v>5701</v>
+      </c>
+      <c r="C34">
+        <v>3828</v>
+      </c>
+      <c r="D34">
+        <v>2475</v>
+      </c>
+      <c r="E34">
+        <v>2939</v>
+      </c>
+      <c r="F34">
+        <v>4192</v>
+      </c>
+      <c r="G34">
+        <v>1757</v>
+      </c>
+      <c r="H34">
+        <v>11224</v>
+      </c>
+      <c r="I34">
+        <v>4843</v>
+      </c>
+      <c r="J34">
+        <v>2598</v>
+      </c>
+      <c r="K34">
+        <v>3268</v>
+      </c>
+      <c r="L34">
+        <v>4602</v>
+      </c>
+      <c r="M34">
+        <v>1602</v>
+      </c>
+      <c r="N34">
+        <v>2295</v>
+      </c>
+      <c r="O34">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>44595</v>
+      </c>
+      <c r="B35">
+        <v>5264</v>
+      </c>
+      <c r="C35">
+        <v>3633</v>
+      </c>
+      <c r="D35">
+        <v>3385</v>
+      </c>
+      <c r="E35">
+        <v>3010</v>
+      </c>
+      <c r="F35">
+        <v>4303</v>
+      </c>
+      <c r="G35">
+        <v>1710</v>
+      </c>
+      <c r="H35">
+        <v>7055</v>
+      </c>
+      <c r="I35">
+        <v>3186</v>
+      </c>
+      <c r="J35">
+        <v>1972</v>
+      </c>
+      <c r="K35">
+        <v>2380</v>
+      </c>
+      <c r="L35">
+        <v>2891</v>
+      </c>
+      <c r="M35">
+        <v>1504</v>
+      </c>
+      <c r="N35">
+        <v>1670</v>
+      </c>
+      <c r="O35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>44596</v>
+      </c>
+      <c r="B36">
+        <v>5002</v>
+      </c>
+      <c r="C36">
+        <v>3714</v>
+      </c>
+      <c r="D36">
+        <v>2069</v>
+      </c>
+      <c r="E36">
+        <v>2610</v>
+      </c>
+      <c r="F36">
+        <v>3399</v>
+      </c>
+      <c r="G36">
+        <v>1442</v>
+      </c>
+      <c r="H36">
+        <v>6398</v>
+      </c>
+      <c r="I36">
+        <v>3426</v>
+      </c>
+      <c r="J36">
+        <v>1792</v>
+      </c>
+      <c r="K36">
+        <v>2616</v>
+      </c>
+      <c r="L36">
+        <v>2469</v>
+      </c>
+      <c r="M36">
+        <v>1202</v>
+      </c>
+      <c r="N36">
+        <v>1814</v>
+      </c>
+      <c r="O36">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>44597</v>
+      </c>
+      <c r="B37">
+        <v>2471</v>
+      </c>
+      <c r="C37">
+        <v>3321</v>
+      </c>
+      <c r="D37">
+        <v>1833</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37">
+        <v>3569</v>
+      </c>
+      <c r="G37">
+        <v>1207</v>
+      </c>
+      <c r="H37">
+        <v>5577</v>
+      </c>
+      <c r="I37">
+        <v>2729</v>
+      </c>
+      <c r="J37">
+        <v>1577</v>
+      </c>
+      <c r="K37">
+        <v>2086</v>
+      </c>
+      <c r="L37">
+        <v>2471</v>
+      </c>
+      <c r="M37">
+        <v>923</v>
+      </c>
+      <c r="N37">
+        <v>1807</v>
+      </c>
+      <c r="O37">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>44598</v>
+      </c>
+      <c r="B38">
+        <v>3564</v>
+      </c>
+      <c r="C38">
+        <v>2309</v>
+      </c>
+      <c r="D38">
+        <v>1307</v>
+      </c>
+      <c r="E38">
+        <v>1609</v>
+      </c>
+      <c r="F38">
+        <v>2529</v>
+      </c>
+      <c r="G38">
+        <v>1213</v>
+      </c>
+      <c r="H38">
+        <v>3989</v>
+      </c>
+      <c r="I38">
+        <v>2554</v>
+      </c>
+      <c r="J38">
+        <v>1215</v>
+      </c>
+      <c r="K38">
+        <v>1639</v>
+      </c>
+      <c r="L38">
+        <v>2071</v>
+      </c>
+      <c r="M38">
+        <v>825</v>
+      </c>
+      <c r="N38">
+        <v>1442</v>
+      </c>
+      <c r="O38">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>44599</v>
+      </c>
+      <c r="B39">
+        <v>3493</v>
+      </c>
+      <c r="C39">
+        <v>2469</v>
+      </c>
+      <c r="D39">
+        <v>1053</v>
+      </c>
+      <c r="E39">
+        <v>1109</v>
+      </c>
+      <c r="F39">
+        <v>2786</v>
+      </c>
+      <c r="G39">
+        <v>737</v>
+      </c>
+      <c r="H39">
+        <v>3490</v>
+      </c>
+      <c r="I39">
+        <v>1780</v>
+      </c>
+      <c r="J39">
+        <v>816</v>
+      </c>
+      <c r="K39">
+        <v>1218</v>
+      </c>
+      <c r="L39">
+        <v>1612</v>
+      </c>
+      <c r="M39">
+        <v>617</v>
+      </c>
+      <c r="N39">
+        <v>1031</v>
+      </c>
+      <c r="O39">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>44600</v>
+      </c>
+      <c r="B40">
+        <v>5273</v>
+      </c>
+      <c r="C40">
+        <v>2806</v>
+      </c>
+      <c r="D40">
+        <v>1322</v>
+      </c>
+      <c r="E40">
+        <v>1559</v>
+      </c>
+      <c r="F40">
+        <v>3569</v>
+      </c>
+      <c r="G40">
+        <v>1252</v>
+      </c>
+      <c r="H40">
+        <v>5676</v>
+      </c>
+      <c r="I40">
+        <v>1921</v>
+      </c>
+      <c r="J40">
+        <v>1120</v>
+      </c>
+      <c r="K40">
+        <v>1349</v>
+      </c>
+      <c r="L40">
+        <v>1711</v>
+      </c>
+      <c r="M40">
+        <v>512</v>
+      </c>
+      <c r="N40">
+        <v>1061</v>
+      </c>
+      <c r="O40">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>44608</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>